--- a/Excel/Laborator 4_1.xlsx
+++ b/Excel/Laborator 4_1.xlsx
@@ -4,19 +4,29 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1" sheetId="1" r:id="rId1"/>
     <sheet name="Task 2" sheetId="2" r:id="rId2"/>
     <sheet name="Task 3" sheetId="3" r:id="rId3"/>
     <sheet name="Task 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Task 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Task 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Task 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Task 8" sheetId="8" r:id="rId8"/>
+    <sheet name="Task 9" sheetId="9" r:id="rId9"/>
+    <sheet name="Task 10" sheetId="10" r:id="rId10"/>
+    <sheet name="Task 11 (ведомость)" sheetId="11" r:id="rId11"/>
+    <sheet name="Task 12" sheetId="12" r:id="rId12"/>
+    <sheet name="Task 13" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="u">'Task 3'!$A$2</definedName>
     <definedName name="v">'Task 3'!$A$3</definedName>
     <definedName name="x">'Task 3'!$A$4</definedName>
     <definedName name="x_">'Task 4'!$B$3</definedName>
+    <definedName name="x_1">'Task 5'!$A$3</definedName>
     <definedName name="y">'Task 4'!$B$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>Valoarea A</t>
   </si>
@@ -164,12 +174,213 @@
   <si>
     <t>nu(nu x sau nu y) si x</t>
   </si>
+  <si>
+    <t>Lungimea a</t>
+  </si>
+  <si>
+    <t>Lungimea b</t>
+  </si>
+  <si>
+    <t>Perimetrul</t>
+  </si>
+  <si>
+    <t>Aria</t>
+  </si>
+  <si>
+    <t>Comentariu</t>
+  </si>
+  <si>
+    <t>Odaia de arie maxima</t>
+  </si>
+  <si>
+    <t>Unghiul 1</t>
+  </si>
+  <si>
+    <t>Unghiul 2</t>
+  </si>
+  <si>
+    <t>Unghiul 3</t>
+  </si>
+  <si>
+    <t>Unghiul 4</t>
+  </si>
+  <si>
+    <t>patrulateru este:</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Produs</t>
+  </si>
+  <si>
+    <t>Cod_produs</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Cantitate</t>
+  </si>
+  <si>
+    <t>Pret unitar</t>
+  </si>
+  <si>
+    <t>Pret_total</t>
+  </si>
+  <si>
+    <t>Produs 1</t>
+  </si>
+  <si>
+    <t>Produs 2</t>
+  </si>
+  <si>
+    <t>Produs 3</t>
+  </si>
+  <si>
+    <t>Produs 4</t>
+  </si>
+  <si>
+    <t>Produs 5</t>
+  </si>
+  <si>
+    <t>Produs 6</t>
+  </si>
+  <si>
+    <t>Produs 7</t>
+  </si>
+  <si>
+    <t>Produs 8</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Suma pr.&gt;=500</t>
+  </si>
+  <si>
+    <t>Suma prod. Cod 8001</t>
+  </si>
+  <si>
+    <t>Suma 1071 10.10</t>
+  </si>
+  <si>
+    <t>Cate 1071</t>
+  </si>
+  <si>
+    <t>Cate &lt;200 lei</t>
+  </si>
+  <si>
+    <t>Baiatul consuma in luna</t>
+  </si>
+  <si>
+    <t>Martie</t>
+  </si>
+  <si>
+    <t>Aprilie</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>cutii cu biscuiti</t>
+  </si>
+  <si>
+    <t>borcane cu dulceata</t>
+  </si>
+  <si>
+    <t>pentru cutii cu biscuiti</t>
+  </si>
+  <si>
+    <t>pentru borcane cu dulceata</t>
+  </si>
+  <si>
+    <t>Baiatul cheltuie total/luna (lei)</t>
+  </si>
+  <si>
+    <t>Cheltuieli</t>
+  </si>
+  <si>
+    <t>cutia cu biscuiti</t>
+  </si>
+  <si>
+    <t>borcanul cu dulceata</t>
+  </si>
+  <si>
+    <t>Pretul/unitate (lei)</t>
+  </si>
+  <si>
+    <t>Baitul este:</t>
+  </si>
+  <si>
+    <t>Cheltuieli:</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Radacina 1</t>
+  </si>
+  <si>
+    <t>Radacina 2</t>
+  </si>
+  <si>
+    <t>Situatia pentru anul I, semestrul I, grupa …</t>
+  </si>
+  <si>
+    <t>nr.</t>
+  </si>
+  <si>
+    <t>Nume/prenume</t>
+  </si>
+  <si>
+    <t>Nume Prenume 1</t>
+  </si>
+  <si>
+    <t>Nume Prenume 2</t>
+  </si>
+  <si>
+    <t>Nume Prenume 3</t>
+  </si>
+  <si>
+    <t>Nume Prenume 4</t>
+  </si>
+  <si>
+    <t>Mat.</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>L.Engleza</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Rezultate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="#,##0.00\ [$lei-418]"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +397,27 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,8 +436,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9966FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -385,11 +657,298 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -401,15 +960,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -419,15 +969,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -443,12 +984,167 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9966FF"/>
+      <color rgb="FF9933FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -886,6 +1582,613 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="7" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="93" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29">
+        <v>2</v>
+      </c>
+      <c r="D3" s="29">
+        <v>3</v>
+      </c>
+      <c r="E3" s="29">
+        <f>POWER(C3,2)-4*B3*D3</f>
+        <v>-8</v>
+      </c>
+      <c r="F3" s="29" t="str">
+        <f>IF(E3&gt;0,"x1 = "&amp;(-C3+SQRT(E3))/(2*B3),IF(E3=0,"x1 = "&amp;(-C3)/(2*B3),"Ecuatia nu are radacini"))</f>
+        <v>Ecuatia nu are radacini</v>
+      </c>
+      <c r="G3" s="8" t="str">
+        <f>IF(E3&gt;0,"x2 = "&amp;(-C3-SQRT(E3))/(2*B3),IF(E3=0,"x2 = "&amp;(-C3)/(2*B3),"Ecuatia nu are radacini"))</f>
+        <v>Ecuatia nu are radacini</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+      <c r="E4" s="29">
+        <f t="shared" ref="E4:E6" si="0">POWER(C4,2)-4*B4*D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="29" t="str">
+        <f t="shared" ref="F4:F6" si="1">IF(E4&gt;0,"x1 = "&amp;(-C4+SQRT(E4))/(2*B4),IF(E4=0,"x1 = "&amp;(-C4)/(2*B4),"Ecuatia nu are radacini"))</f>
+        <v>x1 = -1</v>
+      </c>
+      <c r="G4" s="8" t="str">
+        <f t="shared" ref="G4:G6" si="2">IF(E4&gt;0,"x2 = "&amp;(-C4-SQRT(E4))/(2*B4),IF(E4=0,"x2 = "&amp;(-C4)/(2*B4),"Ecuatia nu are radacini"))</f>
+        <v>x2 = -1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="29">
+        <v>-6</v>
+      </c>
+      <c r="E5" s="29">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F5" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>x1 = 3</v>
+      </c>
+      <c r="G5" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>x2 = -2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33">
+        <v>0</v>
+      </c>
+      <c r="D6" s="33">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>x1 = 1</v>
+      </c>
+      <c r="G6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>x2 = -1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="96" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="95">
+        <v>1</v>
+      </c>
+      <c r="C4" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="97">
+        <v>10</v>
+      </c>
+      <c r="E4" s="97">
+        <v>8</v>
+      </c>
+      <c r="F4" s="97">
+        <v>9</v>
+      </c>
+      <c r="G4" s="97">
+        <v>6</v>
+      </c>
+      <c r="H4" s="99">
+        <f>IF(COUNTIF(D4:G4,"&gt;4")=4,AVERAGE(D4:G4),"restantier")</f>
+        <v>8.25</v>
+      </c>
+      <c r="I4" s="100" t="str">
+        <f>IF(H4&gt;=9,"Foarte bune",IF(AND(H4&gt;=7,H4&lt;9),"Bune",IF(AND(H4&gt;=5,H4&lt;7),"Satisfacatoare","Nesatisfacatoare")))</f>
+        <v>Bune</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="94">
+        <v>2</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98">
+        <v>10</v>
+      </c>
+      <c r="F5" s="98">
+        <v>9</v>
+      </c>
+      <c r="G5" s="98">
+        <v>7</v>
+      </c>
+      <c r="H5" s="99" t="str">
+        <f t="shared" ref="H5:H6" si="0">IF(COUNTIF(D5:G5,"&gt;4")=4,AVERAGE(D5:G5),"restantier")</f>
+        <v>restantier</v>
+      </c>
+      <c r="I5" s="100" t="str">
+        <f t="shared" ref="I5:I7" si="1">IF(H5&gt;=9,"Foarte bune",IF(AND(H5&gt;=7,H5&lt;9),"Bune",IF(AND(H5&gt;=5,H5&lt;7),"Satisfacatoare","Nesatisfacatoare")))</f>
+        <v>Foarte bune</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="94">
+        <v>3</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="98">
+        <v>5</v>
+      </c>
+      <c r="E6" s="98">
+        <v>6</v>
+      </c>
+      <c r="F6" s="98">
+        <v>7</v>
+      </c>
+      <c r="G6" s="98">
+        <v>6</v>
+      </c>
+      <c r="H6" s="99">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I6" s="100" t="str">
+        <f t="shared" si="1"/>
+        <v>Satisfacatoare</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="94">
+        <v>4</v>
+      </c>
+      <c r="C7" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="99" t="str">
+        <f>IF(COUNTIF(D7:G7,"&gt;4")=4,AVERAGE(D7:G7),"restantier")</f>
+        <v>restantier</v>
+      </c>
+      <c r="I7" s="100" t="str">
+        <f t="shared" si="1"/>
+        <v>Foarte bune</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="49">
+        <v>1071</v>
+      </c>
+      <c r="D2" s="56">
+        <v>42744</v>
+      </c>
+      <c r="E2" s="49">
+        <v>2</v>
+      </c>
+      <c r="F2" s="57">
+        <v>7125</v>
+      </c>
+      <c r="G2" s="58">
+        <f>E2*F2</f>
+        <v>14250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="29">
+        <v>8001</v>
+      </c>
+      <c r="D3" s="54">
+        <v>42803</v>
+      </c>
+      <c r="E3" s="29">
+        <v>2</v>
+      </c>
+      <c r="F3" s="55">
+        <v>102</v>
+      </c>
+      <c r="G3" s="59">
+        <f t="shared" ref="G3:G9" si="0">E3*F3</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="29">
+        <v>321</v>
+      </c>
+      <c r="D4" s="54">
+        <v>42803</v>
+      </c>
+      <c r="E4" s="29">
+        <v>1</v>
+      </c>
+      <c r="F4" s="55">
+        <v>786</v>
+      </c>
+      <c r="G4" s="59">
+        <f t="shared" si="0"/>
+        <v>786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1205</v>
+      </c>
+      <c r="D5" s="54">
+        <v>43018</v>
+      </c>
+      <c r="E5" s="29">
+        <v>3</v>
+      </c>
+      <c r="F5" s="55">
+        <v>189</v>
+      </c>
+      <c r="G5" s="59">
+        <f t="shared" si="0"/>
+        <v>567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1071</v>
+      </c>
+      <c r="D6" s="54">
+        <v>43018</v>
+      </c>
+      <c r="E6" s="29">
+        <v>2</v>
+      </c>
+      <c r="F6" s="55">
+        <v>5999</v>
+      </c>
+      <c r="G6" s="59">
+        <f t="shared" si="0"/>
+        <v>11998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="29">
+        <v>8001</v>
+      </c>
+      <c r="D7" s="54">
+        <v>43018</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1</v>
+      </c>
+      <c r="F7" s="55">
+        <v>102</v>
+      </c>
+      <c r="G7" s="59">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1071</v>
+      </c>
+      <c r="D8" s="54">
+        <v>43018</v>
+      </c>
+      <c r="E8" s="29">
+        <v>2</v>
+      </c>
+      <c r="F8" s="55">
+        <v>102</v>
+      </c>
+      <c r="G8" s="59">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="33">
+        <v>8001</v>
+      </c>
+      <c r="D9" s="60">
+        <v>43055</v>
+      </c>
+      <c r="E9" s="33">
+        <v>3</v>
+      </c>
+      <c r="F9" s="61">
+        <v>786</v>
+      </c>
+      <c r="G9" s="62">
+        <f t="shared" si="0"/>
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="67">
+        <f>SUM(G2:G9)</f>
+        <v>30469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="68">
+        <f>SUMIF(F2:F9,"&gt;=500",G2:G9)</f>
+        <v>29392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="69">
+        <f>SUMIF(C2:C9,"8001",G2:G9)</f>
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="69">
+        <f>SUMIFS(G2:G9,C2:C9,"=1071",D2:D9,"10.10.2017")</f>
+        <v>12202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="70">
+        <f>COUNTIF(C2:C9,"=1071")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="4">
+        <f>COUNTIF(F2:F9,"&lt;200")</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M13"/>
@@ -906,54 +2209,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="11" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="G1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="13"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -962,15 +2265,15 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="b">
+      <c r="C3" s="11" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="b">
+      <c r="D3" s="16" t="b">
         <f>OR(B3,C3)</f>
         <v>1</v>
       </c>
-      <c r="E3" s="23" t="b">
+      <c r="E3" s="17" t="b">
         <f>NOT(OR(B3,C3))</f>
         <v>0</v>
       </c>
@@ -978,23 +2281,23 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="H3" s="14" t="b">
+      <c r="H3" s="11" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="I3" s="14" t="b">
+      <c r="I3" s="11" t="b">
         <f>NOT(G3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="14" t="b">
+      <c r="J3" s="11" t="b">
         <f>NOT(H3)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="14" t="b">
+      <c r="K3" s="11" t="b">
         <f>AND(I3,J3)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="14" t="b">
+      <c r="L3" s="11" t="b">
         <f>NOT(K3)</f>
         <v>1</v>
       </c>
@@ -1008,15 +2311,15 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="b">
+      <c r="C4" s="11" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="b">
+      <c r="D4" s="16" t="b">
         <f t="shared" ref="D4:D6" si="0">OR(B4,C4)</f>
         <v>1</v>
       </c>
-      <c r="E4" s="23" t="b">
+      <c r="E4" s="17" t="b">
         <f t="shared" ref="E4:E6" si="1">NOT(OR(B4,C4))</f>
         <v>0</v>
       </c>
@@ -1024,23 +2327,23 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="H4" s="14" t="b">
+      <c r="H4" s="11" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="I4" s="14" t="b">
+      <c r="I4" s="11" t="b">
         <f t="shared" ref="I4:I6" si="2">NOT(G4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="14" t="b">
+      <c r="J4" s="11" t="b">
         <f t="shared" ref="J4:J6" si="3">NOT(H4)</f>
         <v>1</v>
       </c>
-      <c r="K4" s="14" t="b">
+      <c r="K4" s="11" t="b">
         <f t="shared" ref="K4:K6" si="4">AND(I4,J4)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="14" t="b">
+      <c r="L4" s="11" t="b">
         <f t="shared" ref="L4:L6" si="5">NOT(K4)</f>
         <v>1</v>
       </c>
@@ -1054,15 +2357,15 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="C5" s="14" t="b">
+      <c r="C5" s="11" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="D5" s="22" t="b">
+      <c r="D5" s="16" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5" s="23" t="b">
+      <c r="E5" s="17" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1070,23 +2373,23 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="H5" s="14" t="b">
+      <c r="H5" s="11" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="I5" s="14" t="b">
+      <c r="I5" s="11" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J5" s="14" t="b">
+      <c r="J5" s="11" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="14" t="b">
+      <c r="K5" s="11" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L5" s="14" t="b">
+      <c r="L5" s="11" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -1100,15 +2403,15 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="C6" s="15" t="b">
+      <c r="C6" s="12" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="D6" s="24" t="b">
+      <c r="D6" s="18" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="25" t="b">
+      <c r="E6" s="19" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1116,23 +2419,23 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="H6" s="15" t="b">
+      <c r="H6" s="12" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="I6" s="15" t="b">
+      <c r="I6" s="12" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J6" s="15" t="b">
+      <c r="J6" s="12" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K6" s="15" t="b">
+      <c r="K6" s="12" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L6" s="15" t="b">
+      <c r="L6" s="12" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1143,25 +2446,25 @@
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="22" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1170,23 +2473,23 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="C10" s="14" t="b">
+      <c r="C10" s="11" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="D10" s="14" t="b">
+      <c r="D10" s="11" t="b">
         <f>NOT(B10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="14" t="b">
+      <c r="E10" s="11" t="b">
         <f>NOT(C10)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="14" t="b">
+      <c r="F10" s="11" t="b">
         <f>AND(D10,E10)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="14" t="b">
+      <c r="G10" s="11" t="b">
         <f>NOT(F10)</f>
         <v>1</v>
       </c>
@@ -1200,23 +2503,23 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="C11" s="14" t="b">
+      <c r="C11" s="11" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="D11" s="14" t="b">
+      <c r="D11" s="11" t="b">
         <f t="shared" ref="D11:D13" si="7">NOT(B11)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="14" t="b">
+      <c r="E11" s="11" t="b">
         <f t="shared" ref="E11:E13" si="8">NOT(C11)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="14" t="b">
+      <c r="F11" s="11" t="b">
         <f t="shared" ref="F11:F13" si="9">AND(D11,E11)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="14" t="b">
+      <c r="G11" s="11" t="b">
         <f t="shared" ref="G11:G13" si="10">NOT(F11)</f>
         <v>1</v>
       </c>
@@ -1230,23 +2533,23 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="C12" s="14" t="b">
+      <c r="C12" s="11" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="D12" s="14" t="b">
+      <c r="D12" s="11" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E12" s="14" t="b">
+      <c r="E12" s="11" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F12" s="14" t="b">
+      <c r="F12" s="11" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G12" s="14" t="b">
+      <c r="G12" s="11" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
@@ -1260,23 +2563,23 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="C13" s="15" t="b">
+      <c r="C13" s="12" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="D13" s="15" t="b">
+      <c r="D13" s="12" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E13" s="15" t="b">
+      <c r="E13" s="12" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="F13" s="15" t="b">
+      <c r="F13" s="12" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G13" s="15" t="b">
+      <c r="G13" s="12" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -1349,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,4 +2679,750 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="b">
+        <f>IF(OR(x_1&lt;-4,x_1&gt;4),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="63.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
+        <v>1</v>
+      </c>
+      <c r="B4" s="35">
+        <v>2</v>
+      </c>
+      <c r="C4" s="35">
+        <v>3</v>
+      </c>
+      <c r="D4" s="35">
+        <f>2*(B4+C4)</f>
+        <v>10</v>
+      </c>
+      <c r="E4" s="35">
+        <f>B4*C4</f>
+        <v>6</v>
+      </c>
+      <c r="F4" s="36" t="str">
+        <f>IF(E4=$E$14,"Комната с
+максимальной площадью","Комната с меньшей площадью на "&amp;$E$14-E4&amp;" см, чем максимальная площадь")</f>
+        <v>Комната с меньшей площадью на 57 см, чем максимальная площадь</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="29">
+        <v>6</v>
+      </c>
+      <c r="C5" s="29">
+        <v>8</v>
+      </c>
+      <c r="D5" s="35">
+        <f t="shared" ref="D5:D13" si="0">2*(B5+C5)</f>
+        <v>28</v>
+      </c>
+      <c r="E5" s="35">
+        <f t="shared" ref="E5:E13" si="1">B5*C5</f>
+        <v>48</v>
+      </c>
+      <c r="F5" s="36" t="str">
+        <f t="shared" ref="F5:F13" si="2">IF(E5=$E$14,"Комната с
+максимальной площадью","Комната с меньшей площадью на "&amp;$E$14-E5&amp;" см, чем максимальная площадь")</f>
+        <v>Комната с меньшей площадью на 15 см, чем максимальная площадь</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="29">
+        <v>1</v>
+      </c>
+      <c r="C6" s="29">
+        <v>2</v>
+      </c>
+      <c r="D6" s="35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E6" s="35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F6" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Комната с меньшей площадью на 61 см, чем максимальная площадь</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="29">
+        <v>3</v>
+      </c>
+      <c r="C7" s="29">
+        <v>4</v>
+      </c>
+      <c r="D7" s="35">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E7" s="35">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F7" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Комната с меньшей площадью на 51 см, чем максимальная площадь</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="29">
+        <v>7</v>
+      </c>
+      <c r="C8" s="29">
+        <v>2</v>
+      </c>
+      <c r="D8" s="35">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E8" s="35">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F8" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Комната с меньшей площадью на 49 см, чем максимальная площадь</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="29">
+        <v>5</v>
+      </c>
+      <c r="C9" s="29">
+        <v>5</v>
+      </c>
+      <c r="D9" s="35">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E9" s="35">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F9" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Комната с меньшей площадью на 38 см, чем максимальная площадь</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E10" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Комната с меньшей площадью на 62 см, чем максимальная площадь</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="29">
+        <v>7</v>
+      </c>
+      <c r="C11" s="29">
+        <v>9</v>
+      </c>
+      <c r="D11" s="35">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E11" s="35">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="F11" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Комната с
+максимальной площадью</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="29">
+        <v>10</v>
+      </c>
+      <c r="C12" s="29">
+        <v>2</v>
+      </c>
+      <c r="D12" s="35">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E12" s="35">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F12" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Комната с меньшей площадью на 43 см, чем максимальная площадь</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="33">
+        <v>3</v>
+      </c>
+      <c r="C13" s="33">
+        <v>5</v>
+      </c>
+      <c r="D13" s="35">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E13" s="35">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F13" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>Комната с меньшей площадью на 48 см, чем максимальная площадь</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
+      <c r="B14" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43">
+        <f>MAX(E4:E13)</f>
+        <v>63</v>
+      </c>
+      <c r="F14" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="48" t="str">
+        <f>IF(AND(B4=90,C4=90,D4=90,E4=90),"patrulaterul este dreptunghiular","Nu este dreptunghiular")</f>
+        <v>Nu este dreptunghiular</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9">
+        <v>120</v>
+      </c>
+      <c r="C4" s="33">
+        <v>60</v>
+      </c>
+      <c r="D4" s="33">
+        <v>90</v>
+      </c>
+      <c r="E4" s="10">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5</v>
+      </c>
+      <c r="E3" s="50" t="str">
+        <f>IF(OR(A3+B3&gt;C3,B3+C3&gt;A3,A3+C3&gt;B3),"Треугольник существует", "Треугольник не существует")</f>
+        <v>Треугольник существует</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50" t="str">
+        <f>IF(POWER(A3,2)+POWER(B3,2)=POWER(C3,2),"Треугольник прямоугольный","Треугольник не прямоугольный")</f>
+        <v>Треугольник прямоугольный</v>
+      </c>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50" t="str">
+        <f>IF(AND(A3=B3,B3=C3,A3=C3),"Треугольник равносторонний",IF(OR(A3=B3,B3=C3,A3=C3),"Треугольник равнобедренный","Треугольник разносторонний"))</f>
+        <v>Треугольник разносторонний</v>
+      </c>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="29">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="50" t="str">
+        <f t="shared" ref="E4:E5" si="0">IF(OR(A4+B4&gt;C4,B4+C4&gt;A4,A4+C4&gt;B4),"Треугольник существует", "Треугольник не существует")</f>
+        <v>Треугольник существует</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50" t="str">
+        <f t="shared" ref="H4:H5" si="1">IF(POWER(A4,2)+POWER(B4,2)=POWER(C4,2),"Треугольник прямоугольный","Треугольник не прямоугольный")</f>
+        <v>Треугольник не прямоугольный</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50" t="str">
+        <f>IF(AND(A4=B4,B4=C4,A4=C4),"Треугольник равносторонний",IF(OR(A4=B4,B4=C4,A4=C4),"Треугольник равнобедренный","Треугольник разносторонний"))</f>
+        <v>Треугольник равносторонний</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>6</v>
+      </c>
+      <c r="B5" s="33">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10">
+        <v>8</v>
+      </c>
+      <c r="E5" s="50" t="str">
+        <f>IF(AND(A5+B5&gt;C5,B5+C5&gt;A5,A5+C5&gt;B5),"Треугольник существует", "Треугольник не существует")</f>
+        <v>Треугольник существует</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>Треугольник не прямоугольный</v>
+      </c>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50" t="str">
+        <f>IF(AND(A5=B5,B5=C5,A5=C5),"Треугольник равносторонний",IF(OR(A5=B5,B5=C5,A5=C5),"Треугольник равнобедренный","Треугольник разносторонний"))</f>
+        <v>Треугольник равнобедренный</v>
+      </c>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="1.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="1.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
+    </row>
+    <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="84"/>
+      <c r="C3" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="78"/>
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="84"/>
+      <c r="C4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="29">
+        <v>5</v>
+      </c>
+      <c r="E4" s="29">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="59">
+        <v>24</v>
+      </c>
+      <c r="J4" s="85"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="84"/>
+      <c r="C5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="33">
+        <v>2</v>
+      </c>
+      <c r="E5" s="33">
+        <v>8</v>
+      </c>
+      <c r="F5" s="10">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="62">
+        <v>40</v>
+      </c>
+      <c r="J5" s="85"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="84"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="85"/>
+    </row>
+    <row r="7" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="84"/>
+      <c r="C7" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="85"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="84"/>
+      <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="55">
+        <f>D4*$I$4</f>
+        <v>120</v>
+      </c>
+      <c r="E8" s="55">
+        <f t="shared" ref="E8:F8" si="0">E4*$I$4</f>
+        <v>144</v>
+      </c>
+      <c r="F8" s="55">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="80" t="str">
+        <f>IF(AND(SUM(D4:F4)&gt;30,SUM(D5:F5)&gt;10),"Обжора","Обычный мальчик")</f>
+        <v>Обычный мальчик</v>
+      </c>
+      <c r="J8" s="85"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="84"/>
+      <c r="C9" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="89">
+        <f>D5*$I$5</f>
+        <v>80</v>
+      </c>
+      <c r="E9" s="89">
+        <f t="shared" ref="E9:F9" si="1">E5*$I$5</f>
+        <v>320</v>
+      </c>
+      <c r="F9" s="89">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="80" t="str">
+        <f>IF(AVERAGE(D10:F10)&gt;400,"Большие",IF(AND(AVERAGE(D10:F10)&gt;=200,AVERAGE(D10:F10)&lt;=400),"Средние","Малые"))</f>
+        <v>Средние</v>
+      </c>
+      <c r="J9" s="85"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="84"/>
+      <c r="C10" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="90">
+        <f>SUM(D8:D9)</f>
+        <v>200</v>
+      </c>
+      <c r="E10" s="90">
+        <f t="shared" ref="E10:F10" si="2">SUM(E8:E9)</f>
+        <v>464</v>
+      </c>
+      <c r="F10" s="90">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="85"/>
+    </row>
+    <row r="11" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Laborator 4_1.xlsx
+++ b/Excel/Laborator 4_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.00\ [$lei-418]"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$lei-418]"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -984,52 +984,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1039,9 +1000,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,14 +1010,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,9 +1028,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1088,12 +1046,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1106,8 +1058,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1133,6 +1085,54 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1154,6 +1154,1078 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Ведомость</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.9358705161854772E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 11 (ведомость)'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nume Prenume 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 11 (ведомость)'!$D$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Mat.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>L.Engleza</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>…</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 11 (ведомость)'!$D$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09FC-470E-AC7F-6A79977FB9E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 11 (ведомость)'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nume Prenume 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 11 (ведомость)'!$D$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Mat.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>L.Engleza</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>…</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 11 (ведомость)'!$D$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-09FC-470E-AC7F-6A79977FB9E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 11 (ведомость)'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nume Prenume 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 11 (ведомость)'!$D$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Mat.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>L.Engleza</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>…</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 11 (ведомость)'!$D$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-09FC-470E-AC7F-6A79977FB9E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="230543024"/>
+        <c:axId val="230544336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="230543024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230544336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="230544336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230543024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1599,22 +2671,22 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="93" t="s">
+      <c r="G2" s="77" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1622,17 +2694,17 @@
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="23">
         <v>2</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="23">
         <v>3</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="23">
         <f>POWER(C3,2)-4*B3*D3</f>
         <v>-8</v>
       </c>
-      <c r="F3" s="29" t="str">
+      <c r="F3" s="23" t="str">
         <f>IF(E3&gt;0,"x1 = "&amp;(-C3+SQRT(E3))/(2*B3),IF(E3=0,"x1 = "&amp;(-C3)/(2*B3),"Ecuatia nu are radacini"))</f>
         <v>Ecuatia nu are radacini</v>
       </c>
@@ -1645,17 +2717,17 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="23">
         <v>2</v>
       </c>
-      <c r="D4" s="29">
-        <v>1</v>
-      </c>
-      <c r="E4" s="29">
+      <c r="D4" s="23">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23">
         <f t="shared" ref="E4:E6" si="0">POWER(C4,2)-4*B4*D4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="29" t="str">
+      <c r="F4" s="23" t="str">
         <f t="shared" ref="F4:F6" si="1">IF(E4&gt;0,"x1 = "&amp;(-C4+SQRT(E4))/(2*B4),IF(E4=0,"x1 = "&amp;(-C4)/(2*B4),"Ecuatia nu are radacini"))</f>
         <v>x1 = -1</v>
       </c>
@@ -1668,17 +2740,17 @@
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="23">
         <v>-1</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="23">
         <v>-6</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="23">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F5" s="29" t="str">
+      <c r="F5" s="23" t="str">
         <f t="shared" si="1"/>
         <v>x1 = 3</v>
       </c>
@@ -1691,17 +2763,17 @@
       <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="33">
-        <v>0</v>
-      </c>
-      <c r="D6" s="33">
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24">
         <v>-1</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F6" s="33" t="str">
+      <c r="F6" s="24" t="str">
         <f t="shared" si="1"/>
         <v>x1 = 1</v>
       </c>
@@ -1719,8 +2791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,141 +2806,141 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="96" t="s">
+      <c r="G3" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="H3" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="96" t="s">
+      <c r="I3" s="80" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="95">
-        <v>1</v>
-      </c>
-      <c r="C4" s="100" t="s">
+      <c r="B4" s="79">
+        <v>1</v>
+      </c>
+      <c r="C4" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="97">
+      <c r="D4" s="81">
         <v>10</v>
       </c>
-      <c r="E4" s="97">
+      <c r="E4" s="81">
         <v>8</v>
       </c>
-      <c r="F4" s="97">
+      <c r="F4" s="81">
         <v>9</v>
       </c>
-      <c r="G4" s="97">
+      <c r="G4" s="81">
         <v>6</v>
       </c>
-      <c r="H4" s="99">
+      <c r="H4" s="83">
         <f>IF(COUNTIF(D4:G4,"&gt;4")=4,AVERAGE(D4:G4),"restantier")</f>
         <v>8.25</v>
       </c>
-      <c r="I4" s="100" t="str">
+      <c r="I4" s="84" t="str">
         <f>IF(H4&gt;=9,"Foarte bune",IF(AND(H4&gt;=7,H4&lt;9),"Bune",IF(AND(H4&gt;=5,H4&lt;7),"Satisfacatoare","Nesatisfacatoare")))</f>
         <v>Bune</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="94">
+      <c r="B5" s="78">
         <v>2</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98">
+      <c r="D5" s="82"/>
+      <c r="E5" s="82">
         <v>10</v>
       </c>
-      <c r="F5" s="98">
+      <c r="F5" s="82">
         <v>9</v>
       </c>
-      <c r="G5" s="98">
+      <c r="G5" s="82">
         <v>7</v>
       </c>
-      <c r="H5" s="99" t="str">
+      <c r="H5" s="83" t="str">
         <f t="shared" ref="H5:H6" si="0">IF(COUNTIF(D5:G5,"&gt;4")=4,AVERAGE(D5:G5),"restantier")</f>
         <v>restantier</v>
       </c>
-      <c r="I5" s="100" t="str">
+      <c r="I5" s="84" t="str">
         <f t="shared" ref="I5:I7" si="1">IF(H5&gt;=9,"Foarte bune",IF(AND(H5&gt;=7,H5&lt;9),"Bune",IF(AND(H5&gt;=5,H5&lt;7),"Satisfacatoare","Nesatisfacatoare")))</f>
         <v>Foarte bune</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="94">
+      <c r="B6" s="78">
         <v>3</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="98">
+      <c r="D6" s="82">
         <v>5</v>
       </c>
-      <c r="E6" s="98">
+      <c r="E6" s="82">
         <v>6</v>
       </c>
-      <c r="F6" s="98">
+      <c r="F6" s="82">
         <v>7</v>
       </c>
-      <c r="G6" s="98">
+      <c r="G6" s="82">
         <v>6</v>
       </c>
-      <c r="H6" s="99">
+      <c r="H6" s="83">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I6" s="100" t="str">
+      <c r="I6" s="84" t="str">
         <f t="shared" si="1"/>
         <v>Satisfacatoare</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="94">
+      <c r="B7" s="78">
         <v>4</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="99" t="str">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="83" t="str">
         <f>IF(COUNTIF(D7:G7,"&gt;4")=4,AVERAGE(D7:G7),"restantier")</f>
         <v>restantier</v>
       </c>
-      <c r="I7" s="100" t="str">
+      <c r="I7" s="84" t="str">
         <f t="shared" si="1"/>
         <v>Foarte bune</v>
       </c>
@@ -1878,6 +2950,7 @@
     <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1901,25 +2974,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="51" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1927,22 +3000,22 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="36">
         <v>1071</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="42">
         <v>42744</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="36">
         <v>2</v>
       </c>
-      <c r="F2" s="57">
+      <c r="F2" s="43">
         <v>7125</v>
       </c>
-      <c r="G2" s="58">
+      <c r="G2" s="44">
         <f>E2*F2</f>
         <v>14250</v>
       </c>
@@ -1951,22 +3024,22 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="23">
         <v>8001</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="40">
         <v>42803</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="23">
         <v>2</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="41">
         <v>102</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G3" s="45">
         <f t="shared" ref="G3:G9" si="0">E3*F3</f>
         <v>204</v>
       </c>
@@ -1975,22 +3048,22 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="23">
         <v>321</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="40">
         <v>42803</v>
       </c>
-      <c r="E4" s="29">
-        <v>1</v>
-      </c>
-      <c r="F4" s="55">
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="41">
         <v>786</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="45">
         <f t="shared" si="0"/>
         <v>786</v>
       </c>
@@ -1999,22 +3072,22 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="23">
         <v>1205</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="40">
         <v>43018</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="23">
         <v>3</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="41">
         <v>189</v>
       </c>
-      <c r="G5" s="59">
+      <c r="G5" s="45">
         <f t="shared" si="0"/>
         <v>567</v>
       </c>
@@ -2023,22 +3096,22 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="23">
         <v>1071</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="40">
         <v>43018</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="23">
         <v>2</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="41">
         <v>5999</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="45">
         <f t="shared" si="0"/>
         <v>11998</v>
       </c>
@@ -2047,22 +3120,22 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="23">
         <v>8001</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="40">
         <v>43018</v>
       </c>
-      <c r="E7" s="29">
-        <v>1</v>
-      </c>
-      <c r="F7" s="55">
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="F7" s="41">
         <v>102</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="45">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
@@ -2071,22 +3144,22 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="23">
         <v>1071</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="40">
         <v>43018</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="23">
         <v>2</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="41">
         <v>102</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="45">
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
@@ -2095,31 +3168,31 @@
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="24">
         <v>8001</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="46">
         <v>43055</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="24">
         <v>3</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="47">
         <v>786</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="48">
         <f t="shared" si="0"/>
         <v>2358</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="53">
         <f>SUM(G2:G9)</f>
         <v>30469</v>
       </c>
@@ -2128,7 +3201,7 @@
       <c r="F11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="54">
         <f>SUMIF(F2:F9,"&gt;=500",G2:G9)</f>
         <v>29392</v>
       </c>
@@ -2137,7 +3210,7 @@
       <c r="F12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="55">
         <f>SUMIF(C2:C9,"8001",G2:G9)</f>
         <v>2664</v>
       </c>
@@ -2146,7 +3219,7 @@
       <c r="F13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G13" s="55">
         <f>SUMIFS(G2:G9,C2:C9,"=1071",D2:D9,"10.10.2017")</f>
         <v>12202</v>
       </c>
@@ -2155,7 +3228,7 @@
       <c r="F14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="70">
+      <c r="G14" s="56">
         <f>COUNTIF(C2:C9,"=1071")</f>
         <v>3</v>
       </c>
@@ -2181,7 +3254,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -2209,21 +3282,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="G1" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -2727,50 +3800,50 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="92" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
-        <v>1</v>
-      </c>
-      <c r="B4" s="35">
+      <c r="A4" s="25">
+        <v>1</v>
+      </c>
+      <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="26">
         <v>3</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="26">
         <f>2*(B4+C4)</f>
         <v>10</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="26">
         <f>B4*C4</f>
         <v>6</v>
       </c>
-      <c r="F4" s="36" t="str">
+      <c r="F4" s="27" t="str">
         <f>IF(E4=$E$14,"Комната с
 максимальной площадью","Комната с меньшей площадью на "&amp;$E$14-E4&amp;" см, чем максимальная площадь")</f>
         <v>Комната с меньшей площадью на 57 см, чем максимальная площадь</v>
@@ -2780,21 +3853,21 @@
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="23">
         <v>6</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="23">
         <v>8</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="26">
         <f t="shared" ref="D5:D13" si="0">2*(B5+C5)</f>
         <v>28</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="26">
         <f t="shared" ref="E5:E13" si="1">B5*C5</f>
         <v>48</v>
       </c>
-      <c r="F5" s="36" t="str">
+      <c r="F5" s="27" t="str">
         <f t="shared" ref="F5:F13" si="2">IF(E5=$E$14,"Комната с
 максимальной площадью","Комната с меньшей площадью на "&amp;$E$14-E5&amp;" см, чем максимальная площадь")</f>
         <v>Комната с меньшей площадью на 15 см, чем максимальная площадь</v>
@@ -2804,21 +3877,21 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="29">
-        <v>1</v>
-      </c>
-      <c r="C6" s="29">
+      <c r="B6" s="23">
+        <v>1</v>
+      </c>
+      <c r="C6" s="23">
         <v>2</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="26">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F6" s="36" t="str">
+      <c r="F6" s="27" t="str">
         <f t="shared" si="2"/>
         <v>Комната с меньшей площадью на 61 см, чем максимальная площадь</v>
       </c>
@@ -2827,21 +3900,21 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="23">
         <v>3</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="23">
         <v>4</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="26">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F7" s="36" t="str">
+      <c r="F7" s="27" t="str">
         <f t="shared" si="2"/>
         <v>Комната с меньшей площадью на 51 см, чем максимальная площадь</v>
       </c>
@@ -2850,21 +3923,21 @@
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="23">
         <v>7</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="23">
         <v>2</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="26">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="26">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F8" s="36" t="str">
+      <c r="F8" s="27" t="str">
         <f t="shared" si="2"/>
         <v>Комната с меньшей площадью на 49 см, чем максимальная площадь</v>
       </c>
@@ -2873,21 +3946,21 @@
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="23">
         <v>5</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="23">
         <v>5</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="26">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="26">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="F9" s="36" t="str">
+      <c r="F9" s="27" t="str">
         <f t="shared" si="2"/>
         <v>Комната с меньшей площадью на 38 см, чем максимальная площадь</v>
       </c>
@@ -2896,21 +3969,21 @@
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="29">
-        <v>1</v>
-      </c>
-      <c r="C10" s="29">
-        <v>1</v>
-      </c>
-      <c r="D10" s="35">
+      <c r="B10" s="23">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23">
+        <v>1</v>
+      </c>
+      <c r="D10" s="26">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F10" s="36" t="str">
+      <c r="F10" s="27" t="str">
         <f t="shared" si="2"/>
         <v>Комната с меньшей площадью на 62 см, чем максимальная площадь</v>
       </c>
@@ -2919,21 +3992,21 @@
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="23">
         <v>7</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="23">
         <v>9</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="26">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="26">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="F11" s="36" t="str">
+      <c r="F11" s="27" t="str">
         <f t="shared" si="2"/>
         <v>Комната с
 максимальной площадью</v>
@@ -2943,21 +4016,21 @@
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="23">
         <v>10</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="23">
         <v>2</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="26">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="F12" s="36" t="str">
+      <c r="F12" s="27" t="str">
         <f t="shared" si="2"/>
         <v>Комната с меньшей площадью на 43 см, чем максимальная площадь</v>
       </c>
@@ -2966,37 +4039,37 @@
       <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="24">
         <v>3</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="24">
         <v>5</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="26">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="26">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F13" s="36" t="str">
+      <c r="F13" s="27" t="str">
         <f t="shared" si="2"/>
         <v>Комната с меньшей площадью на 48 см, чем максимальная площадь</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43">
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="30">
         <f>MAX(E4:E13)</f>
         <v>63</v>
       </c>
-      <c r="F14" s="41"/>
+      <c r="F14" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3031,22 +4104,22 @@
   <sheetData>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="48" t="str">
+      <c r="H3" s="35" t="str">
         <f>IF(AND(B4=90,C4=90,D4=90,E4=90),"patrulaterul este dreptunghiular","Nu este dreptunghiular")</f>
         <v>Nu este dreptunghiular</v>
       </c>
@@ -3055,10 +4128,10 @@
       <c r="B4" s="9">
         <v>120</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="24">
         <v>60</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="24">
         <v>90</v>
       </c>
       <c r="E4" s="10">
@@ -3090,13 +4163,13 @@
   <sheetData>
     <row r="1" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="39" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3104,88 +4177,88 @@
       <c r="A3" s="7">
         <v>4</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="23">
         <v>3</v>
       </c>
       <c r="C3" s="8">
         <v>5</v>
       </c>
-      <c r="E3" s="50" t="str">
+      <c r="E3" s="99" t="str">
         <f>IF(OR(A3+B3&gt;C3,B3+C3&gt;A3,A3+C3&gt;B3),"Треугольник существует", "Треугольник не существует")</f>
         <v>Треугольник существует</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50" t="str">
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99" t="str">
         <f>IF(POWER(A3,2)+POWER(B3,2)=POWER(C3,2),"Треугольник прямоугольный","Треугольник не прямоугольный")</f>
         <v>Треугольник прямоугольный</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50" t="str">
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99" t="str">
         <f>IF(AND(A3=B3,B3=C3,A3=C3),"Треугольник равносторонний",IF(OR(A3=B3,B3=C3,A3=C3),"Треугольник равнобедренный","Треугольник разносторонний"))</f>
         <v>Треугольник разносторонний</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="23">
         <v>2</v>
       </c>
       <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="E4" s="50" t="str">
-        <f t="shared" ref="E4:E5" si="0">IF(OR(A4+B4&gt;C4,B4+C4&gt;A4,A4+C4&gt;B4),"Треугольник существует", "Треугольник не существует")</f>
+      <c r="E4" s="99" t="str">
+        <f t="shared" ref="E4" si="0">IF(OR(A4+B4&gt;C4,B4+C4&gt;A4,A4+C4&gt;B4),"Треугольник существует", "Треугольник не существует")</f>
         <v>Треугольник существует</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50" t="str">
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99" t="str">
         <f t="shared" ref="H4:H5" si="1">IF(POWER(A4,2)+POWER(B4,2)=POWER(C4,2),"Треугольник прямоугольный","Треугольник не прямоугольный")</f>
         <v>Треугольник не прямоугольный</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50" t="str">
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99" t="str">
         <f>IF(AND(A4=B4,B4=C4,A4=C4),"Треугольник равносторонний",IF(OR(A4=B4,B4=C4,A4=C4),"Треугольник равнобедренный","Треугольник разносторонний"))</f>
         <v>Треугольник равносторонний</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>6</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="24">
         <v>6</v>
       </c>
       <c r="C5" s="10">
         <v>8</v>
       </c>
-      <c r="E5" s="50" t="str">
+      <c r="E5" s="99" t="str">
         <f>IF(AND(A5+B5&gt;C5,B5+C5&gt;A5,A5+C5&gt;B5),"Треугольник существует", "Треугольник не существует")</f>
         <v>Треугольник существует</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50" t="str">
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99" t="str">
         <f t="shared" si="1"/>
         <v>Треугольник не прямоугольный</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50" t="str">
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99" t="str">
         <f>IF(AND(A5=B5,B5=C5,A5=C5),"Треугольник равносторонний",IF(OR(A5=B5,B5=C5,A5=C5),"Треугольник равнобедренный","Треугольник разносторонний"))</f>
         <v>Треугольник равнобедренный</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3224,46 +4297,46 @@
   <sheetData>
     <row r="1" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="81"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="84"/>
-      <c r="C3" s="71" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="59" t="s">
         <v>64</v>
       </c>
       <c r="G3" s="11"/>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="85"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="84"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="23">
         <v>5</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="23">
         <v>6</v>
       </c>
       <c r="F4" s="8">
@@ -3273,20 +4346,20 @@
       <c r="H4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="45">
         <v>24</v>
       </c>
-      <c r="J4" s="85"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="84"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="24">
         <v>2</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="24">
         <v>8</v>
       </c>
       <c r="F5" s="10">
@@ -3296,13 +4369,13 @@
       <c r="H5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="48">
         <v>40</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="69"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="84"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -3310,113 +4383,113 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="85"/>
+      <c r="J6" s="69"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="84"/>
-      <c r="C7" s="74" t="s">
+      <c r="B7" s="68"/>
+      <c r="C7" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="59" t="s">
         <v>64</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="85"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="84"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="41">
         <f>D4*$I$4</f>
         <v>120</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="41">
         <f t="shared" ref="E8:F8" si="0">E4*$I$4</f>
         <v>144</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="41">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="79" t="s">
+      <c r="H8" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="80" t="str">
+      <c r="I8" s="64" t="str">
         <f>IF(AND(SUM(D4:F4)&gt;30,SUM(D5:F5)&gt;10),"Обжора","Обычный мальчик")</f>
         <v>Обычный мальчик</v>
       </c>
-      <c r="J8" s="85"/>
+      <c r="J8" s="69"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="84"/>
-      <c r="C9" s="75" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="89">
+      <c r="D9" s="73">
         <f>D5*$I$5</f>
         <v>80</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="73">
         <f t="shared" ref="E9:F9" si="1">E5*$I$5</f>
         <v>320</v>
       </c>
-      <c r="F9" s="89">
+      <c r="F9" s="73">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="80" t="str">
+      <c r="I9" s="64" t="str">
         <f>IF(AVERAGE(D10:F10)&gt;400,"Большие",IF(AND(AVERAGE(D10:F10)&gt;=200,AVERAGE(D10:F10)&lt;=400),"Средние","Малые"))</f>
         <v>Средние</v>
       </c>
-      <c r="J9" s="85"/>
+      <c r="J9" s="69"/>
     </row>
     <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="84"/>
-      <c r="C10" s="76" t="s">
+      <c r="B10" s="68"/>
+      <c r="C10" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="74">
         <f>SUM(D8:D9)</f>
         <v>200</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="74">
         <f t="shared" ref="E10:F10" si="2">SUM(E8:E9)</f>
         <v>464</v>
       </c>
-      <c r="F10" s="90">
+      <c r="F10" s="74">
         <f t="shared" si="2"/>
         <v>336</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="85"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="72"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
